--- a/Assets and Roles/Assets - edited by Makayla (Latest).xlsx
+++ b/Assets and Roles/Assets - edited by Makayla (Latest).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makayla.cobb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makayla.cobb\Desktop\Team-3\Assets and Roles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Knight+Player" sheetId="2" r:id="rId1"/>
     <sheet name="Bugs+Baddies" sheetId="3" r:id="rId2"/>
     <sheet name="Background" sheetId="4" r:id="rId3"/>
+    <sheet name="Screens" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="63">
   <si>
     <t>Asset</t>
   </si>
@@ -52,9 +53,6 @@
     <t>Sprites</t>
   </si>
   <si>
-    <t>Background</t>
-  </si>
-  <si>
     <t>Script</t>
   </si>
   <si>
@@ -181,7 +179,43 @@
     <t>Player damage and Health</t>
   </si>
   <si>
-    <t>Basic pacing AI for enemies…?</t>
+    <t>Makayla</t>
+  </si>
+  <si>
+    <t>Plants, trees, flowers</t>
+  </si>
+  <si>
+    <t>Windmill and wagon</t>
+  </si>
+  <si>
+    <t>makayla</t>
+  </si>
+  <si>
+    <t>Death screen</t>
+  </si>
+  <si>
+    <t>End screen</t>
+  </si>
+  <si>
+    <t>main screen</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>zoey</t>
+  </si>
+  <si>
+    <t>Gameplay background</t>
+  </si>
+  <si>
+    <t>arie</t>
+  </si>
+  <si>
+    <t>dilara</t>
+  </si>
+  <si>
+    <t>Basic pacing AI for enemies</t>
   </si>
 </sst>
 </file>
@@ -511,7 +545,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -559,36 +593,100 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -599,16 +697,16 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -616,13 +714,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,13 +737,14 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="7" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="7" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -668,12 +767,12 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -687,233 +786,260 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="C30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>39</v>
       </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
       <c r="C32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="B38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>44</v>
-      </c>
-      <c r="C45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -923,15 +1049,165 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
